--- a/SPRINT2/PBC - Product Backlog Classified V2.xlsx
+++ b/SPRINT2/PBC - Product Backlog Classified V2.xlsx
@@ -5,25 +5,24 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anderson\Desktop\projeto-PI-3°-semestre\Documentos\Entregáveis\PBL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Downloads\Dream House Rep\Documentos\SPRINT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E41F2BF-11A4-4567-9CBE-CBFF78E85E4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C336B48-FDBF-4D5E-BBDC-3464E4AF7E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11160" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBC" sheetId="15" r:id="rId1"/>
-    <sheet name="Dados" sheetId="14" r:id="rId2"/>
+    <sheet name="SB" sheetId="16" r:id="rId2"/>
+    <sheet name="Dados" sheetId="14" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -219,9 +218,6 @@
     <t xml:space="preserve">Artefato (ferramenta) </t>
   </si>
   <si>
-    <t>O sistema deve ter um cadastro de</t>
-  </si>
-  <si>
     <t>user story</t>
   </si>
   <si>
@@ -258,36 +254,21 @@
     <t>US#3&lt;validação&gt;</t>
   </si>
   <si>
-    <t>O formulário de anuncio de imóveis deverá ter um campo  de matricula do imóvel</t>
-  </si>
-  <si>
-    <t>O sistema deverar validar se o campo de matricula foi enserido ou se já existe</t>
-  </si>
-  <si>
     <t>US#3&lt;anuncio&gt;</t>
   </si>
   <si>
     <t>US#4&lt;anuncio&gt;</t>
   </si>
   <si>
-    <t>O formulário de anuncio de imóvel deverá ter  a opção para upload de imagens</t>
-  </si>
-  <si>
     <t>O formulário de anuncio de imóvel deverá ter  pelo menos uma imagem upada para ser validado</t>
   </si>
   <si>
-    <t>O formulário de anuncio de imóvel deverá  estar separado por etapas para facilitar o preenchimento</t>
-  </si>
-  <si>
     <t>US#5&lt;usabilidade/UX&gt;</t>
   </si>
   <si>
     <t>US#4&lt;validação&gt;</t>
   </si>
   <si>
-    <t>O formulário de anuncio de imóvel deverá  ter mascara em todos os input's</t>
-  </si>
-  <si>
     <t>O formulário de anuncio de imóvel deverá conter textos de auto ajuda para o preenchimento dos campos</t>
   </si>
   <si>
@@ -300,9 +281,6 @@
     <t>O simulador financeiro deverá ter a opção de simular pela quantidade de (dias/semanas/meses)</t>
   </si>
   <si>
-    <t>O sistema deverar ter um sistema de avaliação nos anúncios</t>
-  </si>
-  <si>
     <t>US#7&lt;avaiação de anuncio&gt;</t>
   </si>
   <si>
@@ -312,10 +290,31 @@
     <t>O sistema deverá ter um post de comentarios em cada anúncio</t>
   </si>
   <si>
-    <t xml:space="preserve">O sistema deverar ter uma avaliação com  ranck de estrelas de 1 a 5 para cada anuncio </t>
-  </si>
-  <si>
     <t>O sistema deverar exibir a média de estrelas em cada anúncio</t>
+  </si>
+  <si>
+    <t>O sistema deve ter um cadastro de locador</t>
+  </si>
+  <si>
+    <t>O formulário de anuncio de imóveis deverá ter um campo de matricula do imóvel</t>
+  </si>
+  <si>
+    <t>O sistema deverá validar se o campo de matricula foi inserido ou se já existe</t>
+  </si>
+  <si>
+    <t>O formulário de anuncio de imóvel deverá ter a opção para upload de imagens</t>
+  </si>
+  <si>
+    <t>O formulário de anuncio de imóvel deverá estar separado por etapas para facilitar o preenchimento</t>
+  </si>
+  <si>
+    <t>O formulário de anuncio de imóvel deverá ter mascara em todos os input's</t>
+  </si>
+  <si>
+    <t>O sistema deverá ter um sistema de avaliação nos anúncios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema deverar ter uma avaliação com rank de estrelas de 1 a 5 para cada anuncio </t>
   </si>
 </sst>
 </file>
@@ -498,7 +497,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -568,15 +567,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
@@ -616,7 +606,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -674,36 +664,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -713,23 +703,16 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -737,33 +720,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -1056,62 +1039,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>242455</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>277090</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>963996</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>918881</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="500190" y="310708"/>
-          <a:ext cx="1797626" cy="641791"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2610971</xdr:colOff>
+      <xdr:colOff>5297510</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>739588</xdr:rowOff>
+      <xdr:rowOff>764011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>4616824</xdr:colOff>
+      <xdr:colOff>7303363</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1042147</xdr:rowOff>
+      <xdr:rowOff>1066570</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1126,7 +1065,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6958853" y="773206"/>
+          <a:off x="9473856" y="1008242"/>
           <a:ext cx="2005853" cy="302559"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2248,10 +2187,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:K51"/>
+  <dimension ref="B1:H51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1"/>
@@ -2259,30 +2198,28 @@
     <col min="1" max="1" width="3.85546875" style="14" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.7109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="92.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="200.7109375" style="14" customWidth="1"/>
     <col min="5" max="5" width="0.7109375" style="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="14" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" style="14"/>
-    <col min="11" max="11" width="13.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="17" customWidth="1"/>
+    <col min="8" max="11" width="20.7109375" style="14" customWidth="1"/>
     <col min="12" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="19.5" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:11" ht="89.25" customHeight="1" thickBot="1">
-      <c r="B2" s="43" t="s">
+    <row r="1" spans="2:8" ht="19.5" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:8" ht="89.25" customHeight="1" thickBot="1">
+      <c r="B2" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-    </row>
-    <row r="3" spans="2:11" ht="9.9499999999999993" customHeight="1" thickBot="1"/>
-    <row r="4" spans="2:11" s="23" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+    </row>
+    <row r="3" spans="2:8" ht="9.9499999999999993" customHeight="1" thickBot="1"/>
+    <row r="4" spans="2:8" s="23" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
       <c r="B4" s="18" t="s">
         <v>15</v>
       </c>
@@ -2305,7 +2242,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="5" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B5" s="24" t="s">
         <v>13</v>
       </c>
@@ -2313,7 +2250,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="27" t="s">
@@ -2322,18 +2259,18 @@
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
     </row>
-    <row r="6" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="6" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B6" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>43</v>
       </c>
       <c r="F6" s="27"/>
       <c r="G6" s="27" t="s">
@@ -2341,15 +2278,15 @@
       </c>
       <c r="H6" s="27"/>
     </row>
-    <row r="7" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="7" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B7" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="40" t="s">
-        <v>45</v>
+        <v>48</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>44</v>
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="27"/>
@@ -2358,15 +2295,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="8" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B8" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="E8" s="31"/>
       <c r="F8" s="27"/>
@@ -2374,19 +2311,16 @@
         <v>9</v>
       </c>
       <c r="H8" s="27"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-    </row>
-    <row r="9" spans="2:11" s="28" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
+    </row>
+    <row r="9" spans="2:8" s="28" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
       <c r="B9" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="41" t="s">
         <v>51</v>
+      </c>
+      <c r="D9" s="38" t="s">
+        <v>50</v>
       </c>
       <c r="E9" s="26"/>
       <c r="F9" s="27" t="s">
@@ -2395,32 +2329,32 @@
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
     </row>
-    <row r="10" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="10" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B10" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>52</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="11" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B11" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>68</v>
       </c>
       <c r="E11" s="31"/>
       <c r="F11" s="27"/>
@@ -2429,15 +2363,15 @@
       </c>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="12" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B12" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="41" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="D12" s="38" t="s">
+        <v>69</v>
       </c>
       <c r="E12" s="31"/>
       <c r="F12" s="27"/>
@@ -2446,15 +2380,15 @@
       </c>
       <c r="H12" s="27"/>
     </row>
-    <row r="13" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="13" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B13" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="41" t="s">
-        <v>59</v>
+        <v>55</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>70</v>
       </c>
       <c r="E13" s="31"/>
       <c r="F13" s="27"/>
@@ -2463,15 +2397,15 @@
       </c>
       <c r="H13" s="27"/>
     </row>
-    <row r="14" spans="2:11" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
+    <row r="14" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
       <c r="B14" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="41" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>56</v>
       </c>
       <c r="E14" s="31"/>
       <c r="F14" s="27"/>
@@ -2480,32 +2414,32 @@
       </c>
       <c r="H14" s="27"/>
     </row>
-    <row r="15" spans="2:11" s="28" customFormat="1" ht="30.75" thickBot="1">
+    <row r="15" spans="2:8" s="28" customFormat="1" ht="15.75" thickBot="1">
       <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" s="41" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>71</v>
       </c>
       <c r="E15" s="31"/>
       <c r="F15" s="27"/>
-      <c r="G15" s="33"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:11" s="28" customFormat="1" ht="30.75" thickBot="1">
+    <row r="16" spans="2:8" s="28" customFormat="1" ht="15.75" thickBot="1">
       <c r="B16" s="24" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="41" t="s">
-        <v>64</v>
+        <v>57</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>72</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="27"/>
@@ -2519,10 +2453,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>65</v>
+        <v>57</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>59</v>
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="27"/>
@@ -2536,13 +2470,13 @@
         <v>13</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E18" s="31"/>
-      <c r="F18" s="33"/>
+      <c r="F18" s="32"/>
       <c r="G18" s="27" t="s">
         <v>9</v>
       </c>
@@ -2553,10 +2487,10 @@
         <v>13</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="27"/>
@@ -2570,10 +2504,10 @@
         <v>13</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E20" s="31"/>
       <c r="F20" s="27"/>
@@ -2587,10 +2521,10 @@
         <v>13</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E21" s="31"/>
       <c r="F21" s="27"/>
@@ -2604,10 +2538,10 @@
         <v>13</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E22" s="31"/>
       <c r="F22" s="27"/>
@@ -2621,10 +2555,10 @@
         <v>13</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="27"/>
@@ -2755,89 +2689,89 @@
       <c r="H34" s="27"/>
     </row>
     <row r="35" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C35" s="35"/>
-      <c r="E35" s="36"/>
-      <c r="G35" s="37"/>
+      <c r="C35" s="33"/>
+      <c r="E35" s="34"/>
+      <c r="G35" s="35"/>
     </row>
     <row r="36" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C36" s="35"/>
-      <c r="E36" s="36"/>
-      <c r="G36" s="37"/>
+      <c r="C36" s="33"/>
+      <c r="E36" s="34"/>
+      <c r="G36" s="35"/>
     </row>
     <row r="37" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C37" s="35"/>
-      <c r="E37" s="36"/>
-      <c r="G37" s="37"/>
+      <c r="C37" s="33"/>
+      <c r="E37" s="34"/>
+      <c r="G37" s="35"/>
     </row>
     <row r="38" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C38" s="35"/>
-      <c r="E38" s="36"/>
-      <c r="G38" s="37"/>
+      <c r="C38" s="33"/>
+      <c r="E38" s="34"/>
+      <c r="G38" s="35"/>
     </row>
     <row r="39" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C39" s="35"/>
-      <c r="E39" s="36"/>
-      <c r="G39" s="37"/>
+      <c r="C39" s="33"/>
+      <c r="E39" s="34"/>
+      <c r="G39" s="35"/>
     </row>
     <row r="40" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C40" s="35"/>
-      <c r="E40" s="36"/>
-      <c r="G40" s="37"/>
+      <c r="C40" s="33"/>
+      <c r="E40" s="34"/>
+      <c r="G40" s="35"/>
     </row>
     <row r="41" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C41" s="35"/>
-      <c r="E41" s="36"/>
-      <c r="G41" s="37"/>
+      <c r="C41" s="33"/>
+      <c r="E41" s="34"/>
+      <c r="G41" s="35"/>
     </row>
     <row r="42" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C42" s="35"/>
-      <c r="E42" s="36"/>
-      <c r="G42" s="37"/>
+      <c r="C42" s="33"/>
+      <c r="E42" s="34"/>
+      <c r="G42" s="35"/>
     </row>
     <row r="43" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C43" s="35"/>
-      <c r="E43" s="36"/>
-      <c r="G43" s="37"/>
+      <c r="C43" s="33"/>
+      <c r="E43" s="34"/>
+      <c r="G43" s="35"/>
     </row>
     <row r="44" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C44" s="35"/>
-      <c r="E44" s="36"/>
-      <c r="G44" s="37"/>
+      <c r="C44" s="33"/>
+      <c r="E44" s="34"/>
+      <c r="G44" s="35"/>
     </row>
     <row r="45" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C45" s="35"/>
-      <c r="E45" s="36"/>
-      <c r="G45" s="37"/>
+      <c r="C45" s="33"/>
+      <c r="E45" s="34"/>
+      <c r="G45" s="35"/>
     </row>
     <row r="46" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C46" s="35"/>
-      <c r="E46" s="36"/>
-      <c r="G46" s="37"/>
+      <c r="C46" s="33"/>
+      <c r="E46" s="34"/>
+      <c r="G46" s="35"/>
     </row>
     <row r="47" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C47" s="35"/>
-      <c r="E47" s="36"/>
-      <c r="G47" s="37"/>
+      <c r="C47" s="33"/>
+      <c r="E47" s="34"/>
+      <c r="G47" s="35"/>
     </row>
     <row r="48" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C48" s="35"/>
-      <c r="E48" s="36"/>
-      <c r="G48" s="37"/>
+      <c r="C48" s="33"/>
+      <c r="E48" s="34"/>
+      <c r="G48" s="35"/>
     </row>
     <row r="49" spans="3:7" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C49" s="35"/>
-      <c r="E49" s="36"/>
-      <c r="G49" s="37"/>
+      <c r="C49" s="33"/>
+      <c r="E49" s="34"/>
+      <c r="G49" s="35"/>
     </row>
     <row r="50" spans="3:7" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C50" s="35"/>
-      <c r="E50" s="36"/>
-      <c r="G50" s="37"/>
+      <c r="C50" s="33"/>
+      <c r="E50" s="34"/>
+      <c r="G50" s="35"/>
     </row>
     <row r="51" spans="3:7" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C51" s="35"/>
-      <c r="E51" s="36"/>
-      <c r="G51" s="37"/>
+      <c r="C51" s="33"/>
+      <c r="E51" s="34"/>
+      <c r="G51" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2926,7 +2860,7 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>Dados!$A$2:$A$6</xm:f>
@@ -2946,12 +2880,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F378867A-5387-429E-B87E-19913A3BDAD1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y32" sqref="Y32"/>
-    </sheetView>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75"/>
   <cols>
@@ -2998,8 +2944,8 @@
         <v>13</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="H6" s="42" t="s">
-        <v>43</v>
+      <c r="H6" s="39" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8">

--- a/SPRINT2/PBC - Product Backlog Classified V2.xlsx
+++ b/SPRINT2/PBC - Product Backlog Classified V2.xlsx
@@ -5,24 +5,28 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\Downloads\Dream House Rep\Documentos\SPRINT2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facul\PROJETO PI DREAM HOUSE\Documentação do projeto\Documentos\SPRINT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C336B48-FDBF-4D5E-BBDC-3464E4AF7E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F26640F-CFC4-4BA5-89D9-B326E5D5E970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBC" sheetId="15" r:id="rId1"/>
     <sheet name="SB" sheetId="16" r:id="rId2"/>
     <sheet name="Dados" sheetId="14" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -90,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
   <si>
     <t>∞</t>
   </si>
@@ -315,6 +319,21 @@
   </si>
   <si>
     <t xml:space="preserve">O sistema deverar ter uma avaliação com rank de estrelas de 1 a 5 para cada anuncio </t>
+  </si>
+  <si>
+    <t>0, 1, 1, 2, 3, 5, 8, 13, 21</t>
+  </si>
+  <si>
+    <t>N° Fibonacci</t>
+  </si>
+  <si>
+    <t>Tarefa principal</t>
+  </si>
+  <si>
+    <t>Descrição da tarefa</t>
+  </si>
+  <si>
+    <t>Pontuação Fibonacci</t>
   </si>
 </sst>
 </file>
@@ -324,7 +343,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -409,57 +428,50 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Exo"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Exo"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="Exo"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <name val="Exo"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Exo"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="12"/>
-      <name val="Exo"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Exo"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Exo"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="26"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Cambri"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -493,6 +505,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,7 +624,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -655,98 +673,102 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="21" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="21" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -1128,7 +1150,7 @@
         <xdr:cNvPr id="2" name="CaixaDeTexto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1212,7 +1234,7 @@
         <xdr:cNvPr id="3" name="CaixaDeTexto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1317,15 +1339,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>19</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>99060</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>276225</xdr:colOff>
+          <xdr:colOff>274320</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
+          <xdr:rowOff>289560</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1335,7 +1357,7 @@
                   <a14:compatExt spid="_x0000_s2049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1372,15 +1394,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>314325</xdr:colOff>
+          <xdr:colOff>312420</xdr:colOff>
           <xdr:row>31</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>83820</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1390,7 +1412,7 @@
                   <a14:compatExt spid="_x0000_s2050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1427,15 +1449,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>704850</xdr:colOff>
+          <xdr:colOff>708660</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>38100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
+          <xdr:colOff>464820</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>182880</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1445,7 +1467,7 @@
                   <a14:compatExt spid="_x0000_s2051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1482,15 +1504,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
+          <xdr:colOff>716280</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>30480</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>45720</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1500,7 +1522,7 @@
                   <a14:compatExt spid="_x0000_s2052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1537,15 +1559,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>714375</xdr:colOff>
+          <xdr:colOff>716280</xdr:colOff>
           <xdr:row>18</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
+          <xdr:rowOff>289560</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>20</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
+          <xdr:colOff>518160</xdr:colOff>
           <xdr:row>23</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
+          <xdr:rowOff>289560</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1555,7 +1577,7 @@
                   <a14:compatExt spid="_x0000_s2053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1592,7 +1614,7 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>14</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>25</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -1600,7 +1622,7 @@
           <xdr:col>20</xdr:col>
           <xdr:colOff>533400</xdr:colOff>
           <xdr:row>33</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:rowOff>60960</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1610,7 +1632,7 @@
                   <a14:compatExt spid="_x0000_s2054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1653,9 +1675,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:colOff>487680</xdr:colOff>
           <xdr:row>13</xdr:row>
-          <xdr:rowOff>171450</xdr:rowOff>
+          <xdr:rowOff>175260</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1665,7 +1687,7 @@
                   <a14:compatExt spid="_x0000_s2055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1702,9 +1724,9 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>22</xdr:col>
-          <xdr:colOff>9525</xdr:colOff>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>15</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>160020</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
@@ -1720,7 +1742,7 @@
                   <a14:compatExt spid="_x0000_s2056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1763,9 +1785,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:colOff>487680</xdr:colOff>
           <xdr:row>22</xdr:row>
-          <xdr:rowOff>285750</xdr:rowOff>
+          <xdr:rowOff>289560</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1775,7 +1797,7 @@
                   <a14:compatExt spid="_x0000_s2057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1812,15 +1834,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>22</xdr:col>
-          <xdr:colOff>66675</xdr:colOff>
+          <xdr:colOff>68580</xdr:colOff>
           <xdr:row>24</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>7620</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>28</xdr:col>
-          <xdr:colOff>552450</xdr:colOff>
+          <xdr:colOff>556260</xdr:colOff>
           <xdr:row>28</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
+          <xdr:rowOff>99060</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1830,7 +1852,7 @@
                   <a14:compatExt spid="_x0000_s2058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2187,591 +2209,506 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B1:H51"/>
+  <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="23.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.7109375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="200.7109375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="0.7109375" style="16" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="14" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="17" customWidth="1"/>
-    <col min="8" max="11" width="20.7109375" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="14"/>
+    <col min="1" max="1" width="3.88671875" style="26" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="200.6640625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="0.6640625" style="25" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="26" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="28" customWidth="1"/>
+    <col min="8" max="11" width="20.6640625" style="26" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="19.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:8" ht="89.25" customHeight="1" thickBot="1">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
-    </row>
-    <row r="3" spans="2:8" ht="9.9499999999999993" customHeight="1" thickBot="1"/>
-    <row r="4" spans="2:8" s="23" customFormat="1" ht="24.95" customHeight="1" thickBot="1">
-      <c r="B4" s="18" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="2:8" ht="9.9" customHeight="1" thickBot="1"/>
+    <row r="4" spans="2:8" s="34" customFormat="1" ht="24.9" customHeight="1" thickBot="1">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="35"/>
+      <c r="F5" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-    </row>
-    <row r="6" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B6" s="24" t="s">
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+    </row>
+    <row r="6" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27" t="s">
+      <c r="F6" s="36"/>
+      <c r="G6" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="27"/>
-    </row>
-    <row r="7" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B7" s="24" t="s">
+      <c r="H6" s="36"/>
+    </row>
+    <row r="7" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27" t="s">
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B8" s="24" t="s">
+    <row r="8" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="38" t="s">
+      <c r="D8" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27" t="s">
+      <c r="E8" s="38"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="27"/>
-    </row>
-    <row r="9" spans="2:8" s="28" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B9" s="24" t="s">
+      <c r="H8" s="36"/>
+    </row>
+    <row r="9" spans="2:8" ht="22.5" customHeight="1" thickBot="1">
+      <c r="B9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27" t="s">
+      <c r="E9" s="35"/>
+      <c r="F9" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-    </row>
-    <row r="10" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B10" s="24" t="s">
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+    </row>
+    <row r="10" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27" t="s">
+      <c r="E10" s="38"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="27"/>
-    </row>
-    <row r="11" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B11" s="24" t="s">
+      <c r="H10" s="36"/>
+    </row>
+    <row r="11" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27" t="s">
+      <c r="E11" s="38"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="27"/>
-    </row>
-    <row r="12" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B12" s="24" t="s">
+      <c r="H11" s="36"/>
+    </row>
+    <row r="12" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B12" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27" t="s">
+      <c r="E12" s="38"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B13" s="24" t="s">
+      <c r="H12" s="36"/>
+    </row>
+    <row r="13" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B13" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27" t="s">
+      <c r="E13" s="38"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="27"/>
-    </row>
-    <row r="14" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B14" s="24" t="s">
+      <c r="H13" s="36"/>
+    </row>
+    <row r="14" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27" t="s">
+      <c r="E14" s="38"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="27"/>
-    </row>
-    <row r="15" spans="2:8" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B15" s="24" t="s">
+      <c r="H14" s="36"/>
+    </row>
+    <row r="15" spans="2:8" ht="21.6" thickBot="1">
+      <c r="B15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="27" t="s">
+      <c r="E15" s="38"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:8" s="28" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B16" s="24" t="s">
+    <row r="16" spans="2:8" ht="21.6" thickBot="1">
+      <c r="B16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27" t="s">
+      <c r="E16" s="38"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="27"/>
-    </row>
-    <row r="17" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B17" s="24" t="s">
+      <c r="H16" s="36"/>
+    </row>
+    <row r="17" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B17" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27" t="s">
+      <c r="E17" s="38"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B18" s="24" t="s">
+    <row r="18" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B18" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="27" t="s">
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="27"/>
-    </row>
-    <row r="19" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B19" s="24" t="s">
+      <c r="H18" s="36"/>
+    </row>
+    <row r="19" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27" t="s">
+      <c r="E19" s="38"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B20" s="24" t="s">
+      <c r="H19" s="36"/>
+    </row>
+    <row r="20" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B20" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27" t="s">
+      <c r="E20" s="38"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B21" s="24" t="s">
+    <row r="21" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B21" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27" t="s">
+      <c r="E21" s="38"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B22" s="24" t="s">
+    <row r="22" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B22" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27" t="s">
+      <c r="E22" s="38"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B23" s="24" t="s">
+    <row r="23" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B23" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27" t="s">
+      <c r="E23" s="38"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B24" s="24" t="s">
+    <row r="24" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B24" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-    </row>
-    <row r="25" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B25" s="24" t="s">
+      <c r="C24" s="19"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+    </row>
+    <row r="25" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B25" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-    </row>
-    <row r="26" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B26" s="24" t="s">
+      <c r="C25" s="19"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+    </row>
+    <row r="26" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B26" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-    </row>
-    <row r="27" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B27" s="24" t="s">
+      <c r="C26" s="19"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+    </row>
+    <row r="27" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B27" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-    </row>
-    <row r="28" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B28" s="24" t="s">
+      <c r="C27" s="19"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+    </row>
+    <row r="28" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B28" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-    </row>
-    <row r="29" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B29" s="24" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+    </row>
+    <row r="29" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B29" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-    </row>
-    <row r="30" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B30" s="24" t="s">
+      <c r="C29" s="19"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+    </row>
+    <row r="30" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B30" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B31" s="24" t="s">
+      <c r="C30" s="19"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+    </row>
+    <row r="31" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B31" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-    </row>
-    <row r="32" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B32" s="24" t="s">
+      <c r="C31" s="19"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+    </row>
+    <row r="32" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B32" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-    </row>
-    <row r="33" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B33" s="24" t="s">
+      <c r="C32" s="19"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+    </row>
+    <row r="33" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B33" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-    </row>
-    <row r="34" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B34" s="24" t="s">
+      <c r="C33" s="19"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+    </row>
+    <row r="34" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
+      <c r="B34" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-    </row>
-    <row r="35" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C35" s="33"/>
-      <c r="E35" s="34"/>
-      <c r="G35" s="35"/>
-    </row>
-    <row r="36" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C36" s="33"/>
-      <c r="E36" s="34"/>
-      <c r="G36" s="35"/>
-    </row>
-    <row r="37" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C37" s="33"/>
-      <c r="E37" s="34"/>
-      <c r="G37" s="35"/>
-    </row>
-    <row r="38" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C38" s="33"/>
-      <c r="E38" s="34"/>
-      <c r="G38" s="35"/>
-    </row>
-    <row r="39" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C39" s="33"/>
-      <c r="E39" s="34"/>
-      <c r="G39" s="35"/>
-    </row>
-    <row r="40" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C40" s="33"/>
-      <c r="E40" s="34"/>
-      <c r="G40" s="35"/>
-    </row>
-    <row r="41" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C41" s="33"/>
-      <c r="E41" s="34"/>
-      <c r="G41" s="35"/>
-    </row>
-    <row r="42" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C42" s="33"/>
-      <c r="E42" s="34"/>
-      <c r="G42" s="35"/>
-    </row>
-    <row r="43" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C43" s="33"/>
-      <c r="E43" s="34"/>
-      <c r="G43" s="35"/>
-    </row>
-    <row r="44" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C44" s="33"/>
-      <c r="E44" s="34"/>
-      <c r="G44" s="35"/>
-    </row>
-    <row r="45" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C45" s="33"/>
-      <c r="E45" s="34"/>
-      <c r="G45" s="35"/>
-    </row>
-    <row r="46" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C46" s="33"/>
-      <c r="E46" s="34"/>
-      <c r="G46" s="35"/>
-    </row>
-    <row r="47" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C47" s="33"/>
-      <c r="E47" s="34"/>
-      <c r="G47" s="35"/>
-    </row>
-    <row r="48" spans="2:8" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C48" s="33"/>
-      <c r="E48" s="34"/>
-      <c r="G48" s="35"/>
-    </row>
-    <row r="49" spans="3:7" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C49" s="33"/>
-      <c r="E49" s="34"/>
-      <c r="G49" s="35"/>
-    </row>
-    <row r="50" spans="3:7" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C50" s="33"/>
-      <c r="E50" s="34"/>
-      <c r="G50" s="35"/>
-    </row>
-    <row r="51" spans="3:7" s="28" customFormat="1" ht="23.1" customHeight="1">
-      <c r="C51" s="33"/>
-      <c r="E51" s="34"/>
-      <c r="G51" s="35"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2860,7 +2797,7 @@
   <legacyDrawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000001000000}">
           <x14:formula1>
             <xm:f>Dados!$A$2:$A$6</xm:f>
@@ -2881,14 +2818,339 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F378867A-5387-429E-B87E-19913A3BDAD1}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:G1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" customWidth="1"/>
+    <col min="15" max="15" width="21.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="44"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="O2" s="41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="O3" s="40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="43"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="43"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="43"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="43"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43"/>
+      <c r="C57" s="43"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43"/>
+      <c r="C58" s="43"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43"/>
+      <c r="C59" s="43"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43"/>
+      <c r="C60" s="43"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43"/>
+      <c r="C61" s="43"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="PBC!A1" display="Tarefa principal" xr:uid="{D67C691F-7218-4113-A8E1-9129BD020CA5}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -2899,16 +3161,16 @@
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="52.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="10.85546875" style="2"/>
+    <col min="1" max="1" width="52.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="12" t="s">
@@ -2939,12 +3201,12 @@
       </c>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="33.75">
+    <row r="6" spans="1:8" ht="33.6">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2991,7 +3253,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="23.25">
+    <row r="17" spans="1:2" ht="23.4">
       <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
@@ -2999,7 +3261,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="23.25">
+    <row r="18" spans="1:2" ht="23.4">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -3007,7 +3269,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="23.25">
+    <row r="19" spans="1:2" ht="23.4">
       <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
@@ -3015,7 +3277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="23.25">
+    <row r="20" spans="1:2" ht="23.4">
       <c r="A20" s="11" t="s">
         <v>20</v>
       </c>
@@ -3023,7 +3285,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="23.25">
+    <row r="21" spans="1:2" ht="23.4">
       <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
@@ -3031,7 +3293,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="23.25">
+    <row r="22" spans="1:2" ht="23.4">
       <c r="A22" s="11" t="s">
         <v>22</v>
       </c>
@@ -3039,7 +3301,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="23.25">
+    <row r="23" spans="1:2" ht="23.4">
       <c r="A23" s="11" t="s">
         <v>23</v>
       </c>
@@ -3047,7 +3309,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="23.25">
+    <row r="24" spans="1:2" ht="23.4">
       <c r="A24" s="11" t="s">
         <v>24</v>
       </c>
@@ -3055,7 +3317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="23.25">
+    <row r="25" spans="1:2" ht="23.4">
       <c r="A25" s="11" t="s">
         <v>25</v>
       </c>
@@ -3063,7 +3325,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="23.25">
+    <row r="26" spans="1:2" ht="23.4">
       <c r="A26" s="11" t="s">
         <v>35</v>
       </c>
@@ -3071,7 +3333,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="23.25">
+    <row r="27" spans="1:2" ht="23.4">
       <c r="A27" s="11" t="s">
         <v>40</v>
       </c>
@@ -3080,144 +3342,147 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{8F57FC4C-65E3-4383-8923-9E71BEDCF37A}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
+        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId5">
+          <objectPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:colOff>518160</xdr:colOff>
                 <xdr:row>19</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>99060</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
+                <xdr:colOff>274320</xdr:colOff>
                 <xdr:row>23</xdr:row>
-                <xdr:rowOff>285750</xdr:rowOff>
+                <xdr:rowOff>289560</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId4"/>
+        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2050" r:id="rId6">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
+        <oleObject progId="Word.Document.12" shapeId="2050" r:id="rId7">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
+                <xdr:colOff>556260</xdr:colOff>
                 <xdr:row>25</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
+                <xdr:colOff>312420</xdr:colOff>
                 <xdr:row>31</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>83820</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2050" r:id="rId6"/>
+        <oleObject progId="Word.Document.12" shapeId="2050" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2051" r:id="rId8">
-          <objectPr defaultSize="0" r:id="rId9">
+        <oleObject progId="Word.Document.12" shapeId="2051" r:id="rId9">
+          <objectPr defaultSize="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>704850</xdr:colOff>
+                <xdr:colOff>708660</xdr:colOff>
                 <xdr:row>8</xdr:row>
                 <xdr:rowOff>38100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>20</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
+                <xdr:colOff>464820</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>182880</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2051" r:id="rId8"/>
+        <oleObject progId="Word.Document.12" shapeId="2051" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2052" r:id="rId10">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
+        <oleObject progId="Word.Document.12" shapeId="2052" r:id="rId11">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId12">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
+                <xdr:colOff>716280</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>20</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:colOff>518160</xdr:colOff>
                 <xdr:row>18</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>45720</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2052" r:id="rId10"/>
+        <oleObject progId="Word.Document.12" shapeId="2052" r:id="rId11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2053" r:id="rId12">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
+        <oleObject progId="Word.Document.12" shapeId="2053" r:id="rId13">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId14">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
+                <xdr:colOff>716280</xdr:colOff>
                 <xdr:row>18</xdr:row>
-                <xdr:rowOff>285750</xdr:rowOff>
+                <xdr:rowOff>289560</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>20</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:colOff>518160</xdr:colOff>
                 <xdr:row>23</xdr:row>
-                <xdr:rowOff>285750</xdr:rowOff>
+                <xdr:rowOff>289560</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2053" r:id="rId12"/>
+        <oleObject progId="Word.Document.12" shapeId="2053" r:id="rId13"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2054" r:id="rId14">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
+        <oleObject progId="Word.Document.12" shapeId="2054" r:id="rId15">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId16">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>7620</xdr:colOff>
                 <xdr:row>25</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -3225,20 +3490,20 @@
                 <xdr:col>20</xdr:col>
                 <xdr:colOff>533400</xdr:colOff>
                 <xdr:row>33</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>60960</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2054" r:id="rId14"/>
+        <oleObject progId="Word.Document.12" shapeId="2054" r:id="rId15"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2055" r:id="rId16">
-          <objectPr defaultSize="0" r:id="rId17">
+        <oleObject progId="Word.Document.12" shapeId="2055" r:id="rId17">
+          <objectPr defaultSize="0" r:id="rId18">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>22</xdr:col>
@@ -3248,28 +3513,28 @@
               </from>
               <to>
                 <xdr:col>28</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:colOff>487680</xdr:colOff>
                 <xdr:row>13</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>175260</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2055" r:id="rId16"/>
+        <oleObject progId="Word.Document.12" shapeId="2055" r:id="rId17"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2056" r:id="rId18">
-          <objectPr defaultSize="0" r:id="rId19">
+        <oleObject progId="Word.Document.12" shapeId="2056" r:id="rId19">
+          <objectPr defaultSize="0" r:id="rId20">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>22</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>7620</xdr:colOff>
                 <xdr:row>15</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>160020</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>28</xdr:col>
@@ -3282,13 +3547,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2056" r:id="rId18"/>
+        <oleObject progId="Word.Document.12" shapeId="2056" r:id="rId19"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2057" r:id="rId20">
-          <objectPr defaultSize="0" r:id="rId21">
+        <oleObject progId="Word.Document.12" shapeId="2057" r:id="rId21">
+          <objectPr defaultSize="0" r:id="rId22">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>22</xdr:col>
@@ -3298,41 +3563,41 @@
               </from>
               <to>
                 <xdr:col>28</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:colOff>487680</xdr:colOff>
                 <xdr:row>22</xdr:row>
-                <xdr:rowOff>285750</xdr:rowOff>
+                <xdr:rowOff>289560</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2057" r:id="rId20"/>
+        <oleObject progId="Word.Document.12" shapeId="2057" r:id="rId21"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2058" r:id="rId22">
-          <objectPr defaultSize="0" r:id="rId23">
+        <oleObject progId="Word.Document.12" shapeId="2058" r:id="rId23">
+          <objectPr defaultSize="0" r:id="rId24">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>22</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
+                <xdr:colOff>68580</xdr:colOff>
                 <xdr:row>24</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>7620</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>28</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
+                <xdr:colOff>556260</xdr:colOff>
                 <xdr:row>28</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>99060</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2058" r:id="rId22"/>
+        <oleObject progId="Word.Document.12" shapeId="2058" r:id="rId23"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/SPRINT2/PBC - Product Backlog Classified V2.xlsx
+++ b/SPRINT2/PBC - Product Backlog Classified V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facul\PROJETO PI DREAM HOUSE\Documentação do projeto\Documentos\SPRINT2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\Documentos\SPRINT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F26640F-CFC4-4BA5-89D9-B326E5D5E970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBBD344-3A01-491A-9F7F-A211F1D06B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBC" sheetId="15" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="102">
   <si>
     <t>∞</t>
   </si>
@@ -222,9 +222,6 @@
     <t xml:space="preserve">Artefato (ferramenta) </t>
   </si>
   <si>
-    <t>user story</t>
-  </si>
-  <si>
     <t>O Sistemas deverá ter um filtro especifico para cada periodo de aluguel (diária, semanal, mensal)</t>
   </si>
   <si>
@@ -285,9 +282,6 @@
     <t>O simulador financeiro deverá ter a opção de simular pela quantidade de (dias/semanas/meses)</t>
   </si>
   <si>
-    <t>US#7&lt;avaiação de anuncio&gt;</t>
-  </si>
-  <si>
     <t>US#7&lt;avaliação de anuncio&gt;</t>
   </si>
   <si>
@@ -333,7 +327,79 @@
     <t>Descrição da tarefa</t>
   </si>
   <si>
-    <t>Pontuação Fibonacci</t>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>Gráfico de GANTT</t>
+  </si>
+  <si>
+    <t>Product/Sprint Backlog</t>
+  </si>
+  <si>
+    <t>Modelagem de Dados​</t>
+  </si>
+  <si>
+    <t>Planilha de Arquitetura</t>
+  </si>
+  <si>
+    <t>Diagrama de Solução de Software</t>
+  </si>
+  <si>
+    <t>Interface WEB com regras de usabilidade</t>
+  </si>
+  <si>
+    <t>2 CRUDs (SpringBoot + ORM)</t>
+  </si>
+  <si>
+    <t>Login/LogOff com ORM</t>
+  </si>
+  <si>
+    <t>Funcionalidade de exportação de arquivos</t>
+  </si>
+  <si>
+    <t>Documento de Layout (Entrada e Saída)</t>
+  </si>
+  <si>
+    <t>Implementação de lista</t>
+  </si>
+  <si>
+    <t>Padrão de projeto (2 tipos)​</t>
+  </si>
+  <si>
+    <t>Separar as atividades em niveis de relevância</t>
+  </si>
+  <si>
+    <t>Criar as tabelas e realizar a implementação</t>
+  </si>
+  <si>
+    <t>Estruturar planilha de arquitetura</t>
+  </si>
+  <si>
+    <t>Fazer diagrama da solução de software</t>
+  </si>
+  <si>
+    <t>Acrescentar as regras na interface</t>
+  </si>
+  <si>
+    <t>Implementar e integrar nos Cruds</t>
+  </si>
+  <si>
+    <t>Realizar o processo de logon com ORM</t>
+  </si>
+  <si>
+    <t>Fazer com auxilio do CSV</t>
+  </si>
+  <si>
+    <t>Montar e estrturar o Layout</t>
+  </si>
+  <si>
+    <t>Usar lista no projeto</t>
+  </si>
+  <si>
+    <t>Escolher o padrão de projeto que melhor nos atende</t>
+  </si>
+  <si>
+    <t>Gráfico de evolução do projeto</t>
   </si>
 </sst>
 </file>
@@ -343,7 +409,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -441,34 +507,67 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
       <sz val="16"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
+      <color rgb="FFAE229D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FFAE229D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF202124"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <name val="Cambri"/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -510,12 +609,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -599,6 +698,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -624,7 +743,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -665,110 +784,115 @@
     <xf numFmtId="164" fontId="9" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="21" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="21" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="21" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -795,7 +919,196 @@
     <cellStyle name="Hiperlink Visitado" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="48">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1036,6 +1349,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FFAE229D"/>
       <color rgb="FFEFB661"/>
       <color rgb="FFD1E8EB"/>
       <color rgb="FFE8F3F4"/>
@@ -1045,7 +1359,6 @@
       <color rgb="FFBBBFC1"/>
       <color rgb="FFED1458"/>
       <color rgb="FFB1BEDD"/>
-      <color rgb="FFDFE4F1"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1115,11 +1428,12 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr lvl="0" algn="ctr"/>
           <a:r>
-            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:rPr lang="pt-BR" sz="1100" b="0"/>
             <a:t>Backlog Classificado do Produto</a:t>
           </a:r>
         </a:p>
@@ -2215,500 +2529,500 @@
       <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="23.1" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="23.1" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="26" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="200.6640625" style="26" customWidth="1"/>
-    <col min="5" max="5" width="0.6640625" style="25" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="26" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="28" customWidth="1"/>
-    <col min="8" max="11" width="20.6640625" style="26" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="26"/>
+    <col min="1" max="1" width="3.88671875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="200.6640625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="0.6640625" style="21" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" style="24" customWidth="1"/>
+    <col min="8" max="11" width="20.6640625" style="22" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="19.5" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:8" ht="89.25" customHeight="1" thickBot="1">
-      <c r="B2" s="29" t="s">
+    <row r="1" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:8" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-    </row>
-    <row r="3" spans="2:8" ht="9.9" customHeight="1" thickBot="1"/>
-    <row r="4" spans="2:8" s="34" customFormat="1" ht="24.9" customHeight="1" thickBot="1">
-      <c r="B4" s="15" t="s">
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="2:8" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:8" s="25" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="2:8" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36" t="s">
+      <c r="E12" s="29"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-    </row>
-    <row r="6" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B6" s="18" t="s">
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36" t="s">
+      <c r="C13" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="36"/>
-    </row>
-    <row r="7" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B7" s="18" t="s">
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36" t="s">
+      <c r="C14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B8" s="18" t="s">
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="2:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36" t="s">
+      <c r="C15" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="36"/>
-    </row>
-    <row r="9" spans="2:8" ht="22.5" customHeight="1" thickBot="1">
-      <c r="B9" s="18" t="s">
+    </row>
+    <row r="16" spans="2:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36" t="s">
+      <c r="C16" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-    </row>
-    <row r="10" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B10" s="18" t="s">
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="36"/>
-    </row>
-    <row r="11" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B11" s="18" t="s">
+      <c r="C17" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36" t="s">
+      <c r="C18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="36"/>
-    </row>
-    <row r="12" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B12" s="18" t="s">
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36" t="s">
+      <c r="C19" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="36"/>
-    </row>
-    <row r="13" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B13" s="18" t="s">
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36" t="s">
+      <c r="C20" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="36"/>
-    </row>
-    <row r="14" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B14" s="18" t="s">
+    </row>
+    <row r="21" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36" t="s">
+      <c r="C21" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="36"/>
-    </row>
-    <row r="15" spans="2:8" ht="21.6" thickBot="1">
-      <c r="B15" s="18" t="s">
+    </row>
+    <row r="22" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="36" t="s">
+      <c r="C22" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="21.6" thickBot="1">
-      <c r="B16" s="18" t="s">
+    <row r="23" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36" t="s">
+      <c r="C23" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="36"/>
-    </row>
-    <row r="17" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B17" s="18" t="s">
+    </row>
+    <row r="24" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B18" s="18" t="s">
+      <c r="C24" s="15"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+    </row>
+    <row r="25" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="36"/>
-    </row>
-    <row r="19" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B19" s="18" t="s">
+      <c r="C25" s="15"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+    </row>
+    <row r="26" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="H19" s="36"/>
-    </row>
-    <row r="20" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B20" s="18" t="s">
+      <c r="C26" s="15"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+    </row>
+    <row r="27" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B21" s="18" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+    </row>
+    <row r="28" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B22" s="18" t="s">
+      <c r="C28" s="15"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+    </row>
+    <row r="29" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B23" s="18" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B24" s="18" t="s">
+      <c r="C30" s="15"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+    </row>
+    <row r="31" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-    </row>
-    <row r="25" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B25" s="18" t="s">
+      <c r="C31" s="15"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+    </row>
+    <row r="32" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-    </row>
-    <row r="26" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B26" s="18" t="s">
+      <c r="C32" s="15"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+    </row>
+    <row r="33" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-    </row>
-    <row r="27" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B27" s="18" t="s">
+      <c r="C33" s="15"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+    </row>
+    <row r="34" spans="2:8" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-    </row>
-    <row r="28" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B28" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-    </row>
-    <row r="29" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B29" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-    </row>
-    <row r="30" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B30" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-    </row>
-    <row r="31" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B31" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-    </row>
-    <row r="32" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B32" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-    </row>
-    <row r="33" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B33" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="36"/>
-    </row>
-    <row r="34" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
-      <c r="B34" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2716,75 +3030,75 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B5:E5 C5:C6 B6:B34">
-    <cfRule type="expression" dxfId="20" priority="34">
+    <cfRule type="expression" dxfId="47" priority="34">
       <formula>$B5="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="35">
+    <cfRule type="expression" dxfId="46" priority="35">
       <formula>$B5="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="36">
+    <cfRule type="expression" dxfId="45" priority="36">
       <formula>$B5="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="37">
+    <cfRule type="expression" dxfId="44" priority="37">
       <formula>$B5="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="16" priority="26">
+    <cfRule type="expression" dxfId="43" priority="26">
       <formula>$B7="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="27">
+    <cfRule type="expression" dxfId="42" priority="27">
       <formula>$B7="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="28">
+    <cfRule type="expression" dxfId="41" priority="28">
       <formula>$B7="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="29">
+    <cfRule type="expression" dxfId="40" priority="29">
       <formula>$B7="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="39" priority="18">
       <formula>$B6="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="19">
+    <cfRule type="expression" dxfId="38" priority="19">
       <formula>$B6="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="20">
+    <cfRule type="expression" dxfId="37" priority="20">
       <formula>$B6="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="21">
+    <cfRule type="expression" dxfId="36" priority="21">
       <formula>$B6="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C34">
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="35" priority="10">
       <formula>$B7="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="34" priority="11">
       <formula>$B7="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="33" priority="12">
       <formula>$B7="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="13">
+    <cfRule type="expression" dxfId="32" priority="13">
       <formula>$B7="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D34">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="31" priority="1">
       <formula>$B$4="Plannedd"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="30" priority="6">
       <formula>$B8="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="29" priority="7">
       <formula>$B8="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="28" priority="8">
       <formula>$B8="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9">
+    <cfRule type="expression" dxfId="27" priority="9">
       <formula>$B8="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2820,336 +3134,387 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F378867A-5387-429E-B87E-19913A3BDAD1}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" customWidth="1"/>
-    <col min="15" max="15" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="41" customWidth="1"/>
+    <col min="4" max="14" width="8.88671875" style="41"/>
+    <col min="15" max="15" width="21.109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="40"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="44"/>
-      <c r="B2" s="43"/>
+      <c r="B2" s="42" t="s">
+        <v>101</v>
+      </c>
       <c r="C2" s="43"/>
       <c r="O2" s="41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>90</v>
+      </c>
       <c r="C3" s="43"/>
-      <c r="O3" s="40" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
+      <c r="O3" s="44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>91</v>
+      </c>
       <c r="C4" s="43"/>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>92</v>
+      </c>
       <c r="C5" s="43"/>
     </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="43"/>
-      <c r="B6" s="43"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>93</v>
+      </c>
       <c r="C6" s="43"/>
     </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>94</v>
+      </c>
       <c r="C7" s="43"/>
     </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>95</v>
+      </c>
       <c r="C8" s="43"/>
     </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>96</v>
+      </c>
       <c r="C9" s="43"/>
     </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="43"/>
-      <c r="B10" s="43"/>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>97</v>
+      </c>
       <c r="C10" s="43"/>
     </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="43"/>
-      <c r="B11" s="43"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>98</v>
+      </c>
       <c r="C11" s="43"/>
     </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="43"/>
-      <c r="B12" s="43"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>99</v>
+      </c>
       <c r="C12" s="43"/>
     </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="43"/>
-      <c r="B13" s="43"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>100</v>
+      </c>
       <c r="C13" s="43"/>
     </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="43"/>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="43"/>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="43"/>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="43"/>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="43"/>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="43"/>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="43"/>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="43"/>
-      <c r="B21" s="43"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="43"/>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="43"/>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="43"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="43"/>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="43"/>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43"/>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="43"/>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="43"/>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="43"/>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="43"/>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="43"/>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
       <c r="C30" s="43"/>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
       <c r="C31" s="43"/>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
       <c r="C32" s="43"/>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="43"/>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="43"/>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43"/>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="43"/>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43"/>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="43"/>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43"/>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="43"/>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43"/>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="43"/>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="43"/>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43"/>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
       <c r="C40" s="43"/>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43"/>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
       <c r="C41" s="43"/>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="43"/>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="43"/>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43"/>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="43"/>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
       <c r="C45" s="43"/>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="43"/>
-      <c r="B46" s="43"/>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="43"/>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="43"/>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="43"/>
-      <c r="B48" s="43"/>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="43"/>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
       <c r="C49" s="43"/>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="43"/>
-      <c r="B50" s="43"/>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
       <c r="C50" s="43"/>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
       <c r="C51" s="43"/>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="43"/>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
       <c r="C53" s="43"/>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="43"/>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43"/>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
       <c r="C55" s="43"/>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="43"/>
-      <c r="B56" s="43"/>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
       <c r="C56" s="43"/>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="43"/>
-      <c r="B57" s="43"/>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
       <c r="C57" s="43"/>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="43"/>
-      <c r="B58" s="43"/>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="43"/>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="43"/>
-      <c r="B59" s="43"/>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="43"/>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="43"/>
-      <c r="B60" s="43"/>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="43"/>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43"/>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
       <c r="C61" s="43"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="PBC!A1" display="Tarefa principal" xr:uid="{D67C691F-7218-4113-A8E1-9129BD020CA5}"/>
+    <hyperlink ref="B1" location="PBC!A1" display="Descrição da tarefa" xr:uid="{77C0DF93-E2B8-4305-8DD0-5DF026725A24}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3159,9 +3524,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -3169,91 +3536,91 @@
     <col min="4" max="16384" width="10.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="8"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="8"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="33.6">
+    <row r="6" spans="1:8" ht="33.6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="8"/>
-      <c r="H6" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="16" spans="1:8" ht="68.25" customHeight="1">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="23.4">
+    <row r="17" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
@@ -3261,7 +3628,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="23.4">
+    <row r="18" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -3269,7 +3636,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="23.4">
+    <row r="19" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
@@ -3277,7 +3644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="23.4">
+    <row r="20" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>20</v>
       </c>
@@ -3285,7 +3652,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="23.4">
+    <row r="21" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
@@ -3293,7 +3660,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="23.4">
+    <row r="22" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>22</v>
       </c>
@@ -3301,7 +3668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="23.4">
+    <row r="23" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>23</v>
       </c>
@@ -3309,7 +3676,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="23.4">
+    <row r="24" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>24</v>
       </c>
@@ -3317,7 +3684,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="23.4">
+    <row r="25" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>25</v>
       </c>
@@ -3325,7 +3692,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="23.4">
+    <row r="26" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>35</v>
       </c>
@@ -3333,7 +3700,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="23.4">
+    <row r="27" spans="1:2" ht="23.4" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>40</v>
       </c>
@@ -3342,18 +3709,15 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{8F57FC4C-65E3-4383-8923-9E71BEDCF37A}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId5">
-          <objectPr defaultSize="0" r:id="rId6">
+        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3372,13 +3736,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId5"/>
+        <oleObject progId="Word.Document.12" shapeId="2049" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2050" r:id="rId7">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId8">
+        <oleObject progId="Word.Document.12" shapeId="2050" r:id="rId6">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -3397,13 +3761,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2050" r:id="rId7"/>
+        <oleObject progId="Word.Document.12" shapeId="2050" r:id="rId6"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2051" r:id="rId9">
-          <objectPr defaultSize="0" r:id="rId10">
+        <oleObject progId="Word.Document.12" shapeId="2051" r:id="rId8">
+          <objectPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
@@ -3422,13 +3786,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2051" r:id="rId9"/>
+        <oleObject progId="Word.Document.12" shapeId="2051" r:id="rId8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2052" r:id="rId11">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId12">
+        <oleObject progId="Word.Document.12" shapeId="2052" r:id="rId10">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
@@ -3447,13 +3811,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2052" r:id="rId11"/>
+        <oleObject progId="Word.Document.12" shapeId="2052" r:id="rId10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2053" r:id="rId13">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId14">
+        <oleObject progId="Word.Document.12" shapeId="2053" r:id="rId12">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>13</xdr:col>
@@ -3472,13 +3836,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2053" r:id="rId13"/>
+        <oleObject progId="Word.Document.12" shapeId="2053" r:id="rId12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2054" r:id="rId15">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId16">
+        <oleObject progId="Word.Document.12" shapeId="2054" r:id="rId14">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>14</xdr:col>
@@ -3497,13 +3861,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2054" r:id="rId15"/>
+        <oleObject progId="Word.Document.12" shapeId="2054" r:id="rId14"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2055" r:id="rId17">
-          <objectPr defaultSize="0" r:id="rId18">
+        <oleObject progId="Word.Document.12" shapeId="2055" r:id="rId16">
+          <objectPr defaultSize="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>22</xdr:col>
@@ -3522,13 +3886,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2055" r:id="rId17"/>
+        <oleObject progId="Word.Document.12" shapeId="2055" r:id="rId16"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2056" r:id="rId19">
-          <objectPr defaultSize="0" r:id="rId20">
+        <oleObject progId="Word.Document.12" shapeId="2056" r:id="rId18">
+          <objectPr defaultSize="0" r:id="rId19">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>22</xdr:col>
@@ -3547,13 +3911,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2056" r:id="rId19"/>
+        <oleObject progId="Word.Document.12" shapeId="2056" r:id="rId18"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2057" r:id="rId21">
-          <objectPr defaultSize="0" r:id="rId22">
+        <oleObject progId="Word.Document.12" shapeId="2057" r:id="rId20">
+          <objectPr defaultSize="0" r:id="rId21">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>22</xdr:col>
@@ -3572,13 +3936,13 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2057" r:id="rId21"/>
+        <oleObject progId="Word.Document.12" shapeId="2057" r:id="rId20"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.12" shapeId="2058" r:id="rId23">
-          <objectPr defaultSize="0" r:id="rId24">
+        <oleObject progId="Word.Document.12" shapeId="2058" r:id="rId22">
+          <objectPr defaultSize="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>22</xdr:col>
@@ -3597,7 +3961,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.12" shapeId="2058" r:id="rId23"/>
+        <oleObject progId="Word.Document.12" shapeId="2058" r:id="rId22"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/SPRINT2/PBC - Product Backlog Classified V2.xlsx
+++ b/SPRINT2/PBC - Product Backlog Classified V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB\Documentos\SPRINT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBBD344-3A01-491A-9F7F-A211F1D06B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8749434A-3DD8-4284-BDF8-392382EAD981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PBC" sheetId="15" r:id="rId1"/>
@@ -409,7 +409,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -557,14 +557,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF202124"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -847,15 +839,6 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -882,9 +865,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -893,6 +873,18 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="21" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -919,196 +911,7 @@
     <cellStyle name="Hiperlink Visitado" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2525,8 +2328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:H34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="23.1" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2544,37 +2347,37 @@
   <sheetData>
     <row r="1" spans="2:8" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:8" ht="89.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="2:8" ht="9.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:8" s="25" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="36" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3030,75 +2833,75 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="B5:E5 C5:C6 B6:B34">
-    <cfRule type="expression" dxfId="47" priority="34">
+    <cfRule type="expression" dxfId="20" priority="34">
       <formula>$B5="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="35">
+    <cfRule type="expression" dxfId="19" priority="35">
       <formula>$B5="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="36">
+    <cfRule type="expression" dxfId="18" priority="36">
       <formula>$B5="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="37">
+    <cfRule type="expression" dxfId="17" priority="37">
       <formula>$B5="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="43" priority="26">
+    <cfRule type="expression" dxfId="16" priority="26">
       <formula>$B7="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="27">
+    <cfRule type="expression" dxfId="15" priority="27">
       <formula>$B7="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="28">
+    <cfRule type="expression" dxfId="14" priority="28">
       <formula>$B7="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="29">
+    <cfRule type="expression" dxfId="13" priority="29">
       <formula>$B7="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D6:E6">
-    <cfRule type="expression" dxfId="39" priority="18">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>$B6="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="19">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>$B6="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="20">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>$B6="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="21">
+    <cfRule type="expression" dxfId="9" priority="21">
       <formula>$B6="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C34">
-    <cfRule type="expression" dxfId="35" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$B7="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="11">
+    <cfRule type="expression" dxfId="7" priority="11">
       <formula>$B7="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="12">
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>$B7="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="13">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>$B7="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D34">
-    <cfRule type="expression" dxfId="31" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>$B$4="Plannedd"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="6">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>$B8="Done!"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="7">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$B8="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>$B8="Blocked"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="9">
+    <cfRule type="expression" dxfId="0" priority="9">
       <formula>$B8="Dropped"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3134,387 +2937,387 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F378867A-5387-429E-B87E-19913A3BDAD1}">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.44140625" style="41" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5546875" style="41" customWidth="1"/>
-    <col min="4" max="14" width="8.88671875" style="41"/>
-    <col min="15" max="15" width="21.109375" style="41" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="41"/>
+    <col min="1" max="1" width="34.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5546875" style="38" customWidth="1"/>
+    <col min="4" max="14" width="8.88671875" style="38"/>
+    <col min="15" max="15" width="21.109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="40"/>
+      <c r="C1" s="37"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="O2" s="41" t="s">
+      <c r="C2" s="40"/>
+      <c r="O2" s="38" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="43"/>
-      <c r="O3" s="44" t="s">
+      <c r="C3" s="40"/>
+      <c r="O3" s="41" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="40"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="43"/>
+      <c r="C5" s="40"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="40"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="40"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="43"/>
+      <c r="C8" s="40"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="43"/>
+      <c r="C9" s="40"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="43" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="43"/>
+      <c r="C10" s="40"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="43"/>
+      <c r="C11" s="40"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="43"/>
+      <c r="C12" s="40"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="43"/>
+      <c r="C13" s="40"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="42"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="40"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="43"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="40"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="42"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="43"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="42"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="42"/>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="42"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="43"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="40"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="42"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="43"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="43"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="40"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="42"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="40"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="42"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="40"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="40"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="43"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="40"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="42"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="40"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
-      <c r="B34" s="42"/>
-      <c r="C34" s="43"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="40"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="42"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="40"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="C36" s="43"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="43"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="C38" s="43"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="42"/>
-      <c r="B40" s="42"/>
-      <c r="C40" s="43"/>
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="40"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="42"/>
-      <c r="B41" s="42"/>
-      <c r="C41" s="43"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="42"/>
-      <c r="B42" s="42"/>
-      <c r="C42" s="43"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="40"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="42"/>
-      <c r="B43" s="42"/>
-      <c r="C43" s="43"/>
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="40"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="42"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="43"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="40"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="43"/>
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="40"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="42"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="43"/>
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="40"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="42"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="43"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="40"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="42"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="43"/>
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="40"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="42"/>
-      <c r="B49" s="42"/>
-      <c r="C49" s="43"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="40"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="42"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="43"/>
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="40"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="42"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="43"/>
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="40"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="42"/>
-      <c r="B52" s="42"/>
-      <c r="C52" s="43"/>
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="40"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="42"/>
-      <c r="B53" s="42"/>
-      <c r="C53" s="43"/>
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="40"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="42"/>
-      <c r="B54" s="42"/>
-      <c r="C54" s="43"/>
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="40"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="42"/>
-      <c r="B55" s="42"/>
-      <c r="C55" s="43"/>
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="40"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="42"/>
-      <c r="B56" s="42"/>
-      <c r="C56" s="43"/>
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="40"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="42"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="43"/>
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="40"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="42"/>
-      <c r="B58" s="42"/>
-      <c r="C58" s="43"/>
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="40"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="42"/>
-      <c r="B59" s="42"/>
-      <c r="C59" s="43"/>
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="40"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="42"/>
-      <c r="B60" s="42"/>
-      <c r="C60" s="43"/>
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="40"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="42"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="43"/>
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="40"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="PBC!A1" display="Tarefa principal" xr:uid="{D67C691F-7218-4113-A8E1-9129BD020CA5}"/>
-    <hyperlink ref="B1" location="PBC!A1" display="Descrição da tarefa" xr:uid="{77C0DF93-E2B8-4305-8DD0-5DF026725A24}"/>
+    <hyperlink ref="A1" location="PBC!A1" tooltip="Artefato de Referência (XX#R)" display="Tarefa principal" xr:uid="{D67C691F-7218-4113-A8E1-9129BD020CA5}"/>
+    <hyperlink ref="B1" location="PBC!A1" tooltip="Descrição do Requisito" display="Descrição da tarefa" xr:uid="{77C0DF93-E2B8-4305-8DD0-5DF026725A24}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -3524,9 +3327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3537,10 +3338,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="31" t="s">
         <v>2</v>
       </c>
     </row>
